--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H2">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I2">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J2">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>0.0694007424342222</v>
+        <v>0.04313919288933333</v>
       </c>
       <c r="R2">
-        <v>0.6246066819079999</v>
+        <v>0.388252736004</v>
       </c>
       <c r="S2">
-        <v>0.1643703169116343</v>
+        <v>0.1576673656417827</v>
       </c>
       <c r="T2">
-        <v>0.1692280538535431</v>
+        <v>0.2207330758210636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H3">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I3">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J3">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>0.008306102357999999</v>
+        <v>0.012172082328</v>
       </c>
       <c r="R3">
-        <v>0.074754921222</v>
+        <v>0.109548740952</v>
       </c>
       <c r="S3">
-        <v>0.01967236414191012</v>
+        <v>0.04448715950606454</v>
       </c>
       <c r="T3">
-        <v>0.02025375360335536</v>
+        <v>0.06228167453895482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01262966666666667</v>
+        <v>0.018508</v>
       </c>
       <c r="H4">
-        <v>0.037889</v>
+        <v>0.055524</v>
       </c>
       <c r="I4">
-        <v>0.2013851240020835</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J4">
-        <v>0.2013851240020835</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>0.007322358676833333</v>
+        <v>0.00792660624</v>
       </c>
       <c r="R4">
-        <v>0.04393415206099999</v>
+        <v>0.04755963744</v>
       </c>
       <c r="S4">
-        <v>0.01734244294853903</v>
+        <v>0.02897057271207166</v>
       </c>
       <c r="T4">
-        <v>0.01190331654518509</v>
+        <v>0.02703904978265926</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05008433333333333</v>
+        <v>0.018508</v>
       </c>
       <c r="H5">
-        <v>0.150253</v>
+        <v>0.055524</v>
       </c>
       <c r="I5">
-        <v>0.7986148759979164</v>
+        <v>0.2347866901774728</v>
       </c>
       <c r="J5">
-        <v>0.7986148759979165</v>
+        <v>0.3151800006811757</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>0.2752162831684444</v>
+        <v>0.001001844209333333</v>
       </c>
       <c r="R5">
-        <v>2.476946548516</v>
+        <v>0.009016597883999999</v>
       </c>
       <c r="S5">
-        <v>0.6518285842044866</v>
+        <v>0.003661592317553959</v>
       </c>
       <c r="T5">
-        <v>0.6710924747461376</v>
+        <v>0.005126200538497968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,19 +785,19 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.05008433333333333</v>
+        <v>0.060321</v>
       </c>
       <c r="H6">
-        <v>0.150253</v>
+        <v>0.120642</v>
       </c>
       <c r="I6">
-        <v>0.7986148759979164</v>
+        <v>0.7652133098225272</v>
       </c>
       <c r="J6">
-        <v>0.7986148759979165</v>
+        <v>0.6848199993188243</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>0.032938763166</v>
+        <v>0.140598619747</v>
       </c>
       <c r="R6">
-        <v>0.296448868494</v>
+        <v>0.843591718482</v>
       </c>
       <c r="S6">
-        <v>0.07801292537186048</v>
+        <v>0.5138671473350968</v>
       </c>
       <c r="T6">
-        <v>0.08031848927564604</v>
+        <v>0.4796066517758944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,49 +847,173 @@
         <v>1</v>
       </c>
       <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.060321</v>
+      </c>
+      <c r="H7">
+        <v>0.120642</v>
+      </c>
+      <c r="I7">
+        <v>0.7652133098225272</v>
+      </c>
+      <c r="J7">
+        <v>0.6848199993188243</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.657666</v>
+      </c>
+      <c r="N7">
+        <v>1.972998</v>
+      </c>
+      <c r="O7">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P7">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q7">
+        <v>0.039671070786</v>
+      </c>
+      <c r="R7">
+        <v>0.238026424716</v>
+      </c>
+      <c r="S7">
+        <v>0.144991892617534</v>
+      </c>
+      <c r="T7">
+        <v>0.1353250086400221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.060321</v>
+      </c>
+      <c r="H8">
+        <v>0.120642</v>
+      </c>
+      <c r="I8">
+        <v>0.7652133098225272</v>
+      </c>
+      <c r="J8">
+        <v>0.6848199993188243</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.42828</v>
+      </c>
+      <c r="N8">
+        <v>0.85656</v>
+      </c>
+      <c r="O8">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P8">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q8">
+        <v>0.02583427788</v>
+      </c>
+      <c r="R8">
+        <v>0.10333711152</v>
+      </c>
+      <c r="S8">
+        <v>0.09442046231709933</v>
+      </c>
+      <c r="T8">
+        <v>0.05875018089257939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.060321</v>
+      </c>
+      <c r="H9">
+        <v>0.120642</v>
+      </c>
+      <c r="I9">
+        <v>0.7652133098225272</v>
+      </c>
+      <c r="J9">
+        <v>0.6848199993188243</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.05008433333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.150253</v>
-      </c>
-      <c r="I7">
-        <v>0.7986148759979164</v>
-      </c>
-      <c r="J7">
-        <v>0.7986148759979165</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5797745</v>
-      </c>
-      <c r="N7">
-        <v>1.159549</v>
-      </c>
-      <c r="O7">
-        <v>0.08611580937010824</v>
-      </c>
-      <c r="P7">
-        <v>0.0591072285213179</v>
-      </c>
-      <c r="Q7">
-        <v>0.02903761931616667</v>
-      </c>
-      <c r="R7">
-        <v>0.174225715897</v>
-      </c>
-      <c r="S7">
-        <v>0.0687733664215692</v>
-      </c>
-      <c r="T7">
-        <v>0.04720391197613281</v>
+      <c r="M9">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.162391</v>
+      </c>
+      <c r="O9">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P9">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q9">
+        <v>0.003265195837</v>
+      </c>
+      <c r="R9">
+        <v>0.019591175022</v>
+      </c>
+      <c r="S9">
+        <v>0.0119338075527973</v>
+      </c>
+      <c r="T9">
+        <v>0.01113815801032836</v>
       </c>
     </row>
   </sheetData>
